--- a/scripts Stata/Atual/Imobilizado/Imobilizado.xlsx
+++ b/scripts Stata/Atual/Imobilizado/Imobilizado.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Impairment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Imobilizado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66947E9A-7BF3-48CA-B58F-EF5C809F1C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E019C89C-365C-4FF9-9F65-4E18658BD6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{4A046BDD-E5A2-4E0C-9D90-081681761394}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16590" windowHeight="13290" activeTab="1" xr2:uid="{4A046BDD-E5A2-4E0C-9D90-081681761394}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -269,6 +271,15 @@
   <si>
     <t>Imobilizado</t>
   </si>
+  <si>
+    <t xml:space="preserve">Nome setor </t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>CodigoSetor</t>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,6 +460,7 @@
     <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,7 +777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8342D3DF-048F-4F57-ACDD-BB768B120256}">
   <dimension ref="A1:AC321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="A1:S1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29320,4 +29334,745 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9411A247-BB22-4C53-B682-30B00E510160}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <f>VLOOKUP(C2,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(C3,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <f>VLOOKUP(C4,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <f>VLOOKUP(C5,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6">
+        <f>VLOOKUP(C6,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <f>VLOOKUP(C7,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <f>VLOOKUP(C8,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <f>VLOOKUP(C9,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <f>VLOOKUP(C10,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <f>VLOOKUP(C11,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <f>VLOOKUP(C12,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <f>VLOOKUP(C13,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <f>VLOOKUP(C14,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <f>VLOOKUP(C15,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <f>VLOOKUP(C16,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <f>VLOOKUP(C17,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <f>VLOOKUP(C18,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <f>VLOOKUP(C19,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <f>VLOOKUP(C20,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP(C21,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <f>VLOOKUP(C22,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <f>VLOOKUP(C23,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <f>VLOOKUP(C24,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <f>VLOOKUP(C25,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <f>VLOOKUP(C26,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <f>VLOOKUP(C27,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <f>VLOOKUP(C28,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <f>VLOOKUP(C29,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <f>VLOOKUP(C30,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <f>VLOOKUP(C31,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(C32,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(C33,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP(C34,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <f>VLOOKUP(C35,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36">
+        <f>VLOOKUP(C36,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <f>VLOOKUP(C37,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <f>VLOOKUP(C38,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <f>VLOOKUP(C39,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40">
+        <f>VLOOKUP(C40,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <f>VLOOKUP(C41,Planilha3!$A$1:$B$11,2,FALSE)</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B04E690-BC70-433A-8DC5-A40362AF9FD9}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>